--- a/ods/25-KW43 Time-Sheet.xlsx
+++ b/ods/25-KW43 Time-Sheet.xlsx
@@ -3190,11 +3190,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>20.10.2025</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3238,11 +3234,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>20.10.2025</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3286,11 +3278,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>20.10.2025</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3334,11 +3322,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>21.10.2025</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3382,11 +3366,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>21.10.2025</t>
-        </is>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3430,11 +3410,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>21.10.2025</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3478,11 +3454,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>21.10.2025</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3526,11 +3498,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>22.10.2025</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3574,11 +3542,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>22.10.2025</t>
-        </is>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3622,11 +3586,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>22.10.2025</t>
-        </is>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3670,11 +3630,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>22.10.2025</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3718,11 +3674,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>23.10.2025</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3766,11 +3718,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>23.10.2025</t>
-        </is>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3814,11 +3762,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>23.10.2025</t>
-        </is>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3862,11 +3806,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>23.10.2025</t>
-        </is>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>08:00</t>
@@ -3910,11 +3850,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>23.10.2025</t>
-        </is>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
           <t>08:00</t>
